--- a/Scripts/Industry/Results_per_Country/2030_IT.xlsx
+++ b/Scripts/Industry/Results_per_Country/2030_IT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,9 +470,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>595.9066698468755</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -482,7 +480,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>18489.92191344825</v>
+        <v>46.31172096148298</v>
       </c>
       <c r="D4" t="inlineStr"/>
     </row>
@@ -494,7 +492,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>75474.19948736194</v>
+        <v>3536.063524208197</v>
       </c>
       <c r="D5" t="inlineStr"/>
     </row>
@@ -513,13 +511,25 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>123.2143092237704</v>
+        <v>421.3978040552909</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>174.2199394676286</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/Industry/Results_per_Country/2030_IT.xlsx
+++ b/Scripts/Industry/Results_per_Country/2030_IT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -505,7 +505,7 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>704.8072132205325</v>
+        <v>704.8072132205328</v>
       </c>
     </row>
     <row r="7">

--- a/Scripts/Industry/Results_per_Country/2030_IT.xlsx
+++ b/Scripts/Industry/Results_per_Country/2030_IT.xlsx
@@ -456,9 +456,15 @@
           <t>Overall Demand</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3582.37524516968</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1300.424956743452</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
